--- a/Assessment3_Output.xlsx
+++ b/Assessment3_Output.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.9</v>
+        <v>276.97</v>
       </c>
       <c r="C2" t="n">
-        <v>275.25</v>
+        <v>276.97</v>
       </c>
       <c r="D2" t="n">
         <v>171.83</v>
       </c>
       <c r="E2" t="n">
-        <v>59.98</v>
+        <v>61.19</v>
       </c>
       <c r="F2" t="n">
-        <v>275</v>
+        <v>277.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.02</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0732</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.5</v>
+        <v>476.99</v>
       </c>
       <c r="C3" t="n">
         <v>541.0599999999999</v>
@@ -527,19 +527,19 @@
         <v>352.67</v>
       </c>
       <c r="E3" t="n">
-        <v>34.83</v>
+        <v>35.25</v>
       </c>
       <c r="F3" t="n">
-        <v>475</v>
+        <v>477.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0107</v>
+        <v>0.0073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0712</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314.62</v>
+        <v>323.64</v>
       </c>
       <c r="C4" t="n">
-        <v>314.62</v>
+        <v>323.64</v>
       </c>
       <c r="D4" t="n">
         <v>146.27</v>
       </c>
       <c r="E4" t="n">
-        <v>115.09</v>
+        <v>121.26</v>
       </c>
       <c r="F4" t="n">
-        <v>315</v>
+        <v>322.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.15</v>
+        <v>3.26</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0163</v>
+        <v>0.0101</v>
       </c>
       <c r="I4" t="n">
-        <v>0.109</v>
+        <v>0.0674</v>
       </c>
     </row>
   </sheetData>
